--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angptl1-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angptl1-Tek.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.650778</v>
+        <v>0.7028603333333333</v>
       </c>
       <c r="H2">
-        <v>1.952334</v>
+        <v>2.108581</v>
       </c>
       <c r="I2">
-        <v>0.003491029888488973</v>
+        <v>0.003742168187771943</v>
       </c>
       <c r="J2">
-        <v>0.003491029888488974</v>
+        <v>0.003742168187771943</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.413899</v>
+        <v>71.05094633333333</v>
       </c>
       <c r="N2">
-        <v>118.241697</v>
+        <v>213.152839</v>
       </c>
       <c r="O2">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932695</v>
       </c>
       <c r="P2">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932696</v>
       </c>
       <c r="Q2">
-        <v>25.649698363422</v>
+        <v>49.93889182349544</v>
       </c>
       <c r="R2">
-        <v>230.847285270798</v>
+        <v>449.450026411459</v>
       </c>
       <c r="S2">
-        <v>0.002551981225532214</v>
+        <v>0.003083758256080749</v>
       </c>
       <c r="T2">
-        <v>0.002551981225532214</v>
+        <v>0.00308375825608075</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.650778</v>
+        <v>0.7028603333333333</v>
       </c>
       <c r="H3">
-        <v>1.952334</v>
+        <v>2.108581</v>
       </c>
       <c r="I3">
-        <v>0.003491029888488973</v>
+        <v>0.003742168187771943</v>
       </c>
       <c r="J3">
-        <v>0.003491029888488974</v>
+        <v>0.003742168187771943</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.223758</v>
       </c>
       <c r="O3">
-        <v>0.2115830874897988</v>
+        <v>0.1323102827659759</v>
       </c>
       <c r="P3">
-        <v>0.2115830874897987</v>
+        <v>0.132310282765976</v>
       </c>
       <c r="Q3">
-        <v>7.424022927908</v>
+        <v>8.018173985266445</v>
       </c>
       <c r="R3">
-        <v>66.81620635117201</v>
+        <v>72.16356586739801</v>
       </c>
       <c r="S3">
-        <v>0.0007386428823256648</v>
+        <v>0.0004951273310819454</v>
       </c>
       <c r="T3">
-        <v>0.0007386428823256649</v>
+        <v>0.0004951273310819455</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.650778</v>
+        <v>0.7028603333333333</v>
       </c>
       <c r="H4">
-        <v>1.952334</v>
+        <v>2.108581</v>
       </c>
       <c r="I4">
-        <v>0.003491029888488973</v>
+        <v>0.003742168187771943</v>
       </c>
       <c r="J4">
-        <v>0.003491029888488974</v>
+        <v>0.003742168187771943</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.095153333333334</v>
+        <v>3.762092333333333</v>
       </c>
       <c r="N4">
-        <v>9.28546</v>
+        <v>11.286277</v>
       </c>
       <c r="O4">
-        <v>0.05740591946574151</v>
+        <v>0.04363315394075456</v>
       </c>
       <c r="P4">
-        <v>0.0574059194657415</v>
+        <v>0.04363315394075455</v>
       </c>
       <c r="Q4">
-        <v>2.01425769596</v>
+        <v>2.644225471437444</v>
       </c>
       <c r="R4">
-        <v>18.12831926364</v>
+        <v>23.798029242937</v>
       </c>
       <c r="S4">
-        <v>0.0002004057806310946</v>
+        <v>0.0001632826006092477</v>
       </c>
       <c r="T4">
-        <v>0.0002004057806310946</v>
+        <v>0.0001632826006092477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>552.7222750000001</v>
       </c>
       <c r="I5">
-        <v>0.988340100648056</v>
+        <v>0.9809344360866079</v>
       </c>
       <c r="J5">
-        <v>0.9883401006480562</v>
+        <v>0.9809344360866079</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.413899</v>
+        <v>71.05094633333333</v>
       </c>
       <c r="N5">
-        <v>118.241697</v>
+        <v>213.152839</v>
       </c>
       <c r="O5">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932695</v>
       </c>
       <c r="P5">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932696</v>
       </c>
       <c r="Q5">
-        <v>7261.646640633409</v>
+        <v>13090.4802327543</v>
       </c>
       <c r="R5">
-        <v>65354.81976570068</v>
+        <v>117814.3220947887</v>
       </c>
       <c r="S5">
-        <v>0.7224874784403966</v>
+        <v>0.8083454602175514</v>
       </c>
       <c r="T5">
-        <v>0.7224874784403968</v>
+        <v>0.8083454602175515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>552.7222750000001</v>
       </c>
       <c r="I6">
-        <v>0.988340100648056</v>
+        <v>0.9809344360866079</v>
       </c>
       <c r="J6">
-        <v>0.9883401006480562</v>
+        <v>0.9809344360866079</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>34.223758</v>
       </c>
       <c r="O6">
-        <v>0.2115830874897988</v>
+        <v>0.1323102827659759</v>
       </c>
       <c r="P6">
-        <v>0.2115830874897987</v>
+        <v>0.132310282765976</v>
       </c>
       <c r="Q6">
         <v>2101.803708978828</v>
@@ -821,10 +821,10 @@
         <v>18916.23338080946</v>
       </c>
       <c r="S6">
-        <v>0.2091160499850941</v>
+        <v>0.1297877126135022</v>
       </c>
       <c r="T6">
-        <v>0.2091160499850942</v>
+        <v>0.1297877126135022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>552.7222750000001</v>
       </c>
       <c r="I7">
-        <v>0.988340100648056</v>
+        <v>0.9809344360866079</v>
       </c>
       <c r="J7">
-        <v>0.9883401006480562</v>
+        <v>0.9809344360866079</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.095153333333334</v>
+        <v>3.762092333333333</v>
       </c>
       <c r="N7">
-        <v>9.28546</v>
+        <v>11.286277</v>
       </c>
       <c r="O7">
-        <v>0.05740591946574151</v>
+        <v>0.04363315394075456</v>
       </c>
       <c r="P7">
-        <v>0.0574059194657415</v>
+        <v>0.04363315394075455</v>
       </c>
       <c r="Q7">
-        <v>570.2533972912779</v>
+        <v>693.1307444133528</v>
       </c>
       <c r="R7">
-        <v>5132.280575621501</v>
+        <v>6238.176699720175</v>
       </c>
       <c r="S7">
-        <v>0.05673657222256517</v>
+        <v>0.04280126325555423</v>
       </c>
       <c r="T7">
-        <v>0.05673657222256517</v>
+        <v>0.04280126325555422</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.397656666666667</v>
+        <v>2.258412</v>
       </c>
       <c r="H8">
-        <v>4.19297</v>
+        <v>6.775236</v>
       </c>
       <c r="I8">
-        <v>0.007497581659458683</v>
+        <v>0.01202423460319866</v>
       </c>
       <c r="J8">
-        <v>0.007497581659458685</v>
+        <v>0.01202423460319866</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.413899</v>
+        <v>71.05094633333333</v>
       </c>
       <c r="N8">
-        <v>118.241697</v>
+        <v>213.152839</v>
       </c>
       <c r="O8">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932695</v>
       </c>
       <c r="P8">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932696</v>
       </c>
       <c r="Q8">
-        <v>55.08709869667666</v>
+        <v>160.462309810556</v>
       </c>
       <c r="R8">
-        <v>495.78388827009</v>
+        <v>1444.160788295004</v>
       </c>
       <c r="S8">
-        <v>0.00548081461431282</v>
+        <v>0.009908649443343895</v>
       </c>
       <c r="T8">
-        <v>0.005480814614312822</v>
+        <v>0.009908649443343895</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.397656666666667</v>
+        <v>2.258412</v>
       </c>
       <c r="H9">
-        <v>4.19297</v>
+        <v>6.775236</v>
       </c>
       <c r="I9">
-        <v>0.007497581659458683</v>
+        <v>0.01202423460319866</v>
       </c>
       <c r="J9">
-        <v>0.007497581659458685</v>
+        <v>0.01202423460319866</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>34.223758</v>
       </c>
       <c r="O9">
-        <v>0.2115830874897988</v>
+        <v>0.1323102827659759</v>
       </c>
       <c r="P9">
-        <v>0.2115830874897987</v>
+        <v>0.132310282765976</v>
       </c>
       <c r="Q9">
-        <v>15.94435450902889</v>
+        <v>25.763781917432</v>
       </c>
       <c r="R9">
-        <v>143.49919058126</v>
+        <v>231.874037256888</v>
       </c>
       <c r="S9">
-        <v>0.001586361476215157</v>
+        <v>0.001590929880393646</v>
       </c>
       <c r="T9">
-        <v>0.001586361476215157</v>
+        <v>0.001590929880393647</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.397656666666667</v>
+        <v>2.258412</v>
       </c>
       <c r="H10">
-        <v>4.19297</v>
+        <v>6.775236</v>
       </c>
       <c r="I10">
-        <v>0.007497581659458683</v>
+        <v>0.01202423460319866</v>
       </c>
       <c r="J10">
-        <v>0.007497581659458685</v>
+        <v>0.01202423460319866</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.095153333333334</v>
+        <v>3.762092333333333</v>
       </c>
       <c r="N10">
-        <v>9.28546</v>
+        <v>11.286277</v>
       </c>
       <c r="O10">
-        <v>0.05740591946574151</v>
+        <v>0.04363315394075456</v>
       </c>
       <c r="P10">
-        <v>0.0574059194657415</v>
+        <v>0.04363315394075455</v>
       </c>
       <c r="Q10">
-        <v>4.325961690688889</v>
+        <v>8.496354470707999</v>
       </c>
       <c r="R10">
-        <v>38.9336552162</v>
+        <v>76.46719023637199</v>
       </c>
       <c r="S10">
-        <v>0.0004304055689307057</v>
+        <v>0.0005246552794611148</v>
       </c>
       <c r="T10">
-        <v>0.0004304055689307058</v>
+        <v>0.0005246552794611147</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1251376666666667</v>
+        <v>0.619654</v>
       </c>
       <c r="H11">
-        <v>0.375413</v>
+        <v>1.858962</v>
       </c>
       <c r="I11">
-        <v>0.0006712878039962992</v>
+        <v>0.003299161122421622</v>
       </c>
       <c r="J11">
-        <v>0.0006712878039962993</v>
+        <v>0.003299161122421622</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>39.413899</v>
+        <v>71.05094633333333</v>
       </c>
       <c r="N11">
-        <v>118.241697</v>
+        <v>213.152839</v>
       </c>
       <c r="O11">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932695</v>
       </c>
       <c r="P11">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932696</v>
       </c>
       <c r="Q11">
-        <v>4.932163355095667</v>
+        <v>44.02700309923533</v>
       </c>
       <c r="R11">
-        <v>44.389470195861</v>
+        <v>396.243027893118</v>
       </c>
       <c r="S11">
-        <v>0.0004907187642179693</v>
+        <v>0.002718695376293528</v>
       </c>
       <c r="T11">
-        <v>0.0004907187642179694</v>
+        <v>0.002718695376293528</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1251376666666667</v>
+        <v>0.619654</v>
       </c>
       <c r="H12">
-        <v>0.375413</v>
+        <v>1.858962</v>
       </c>
       <c r="I12">
-        <v>0.0006712878039962992</v>
+        <v>0.003299161122421622</v>
       </c>
       <c r="J12">
-        <v>0.0006712878039962993</v>
+        <v>0.003299161122421622</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>34.223758</v>
       </c>
       <c r="O12">
-        <v>0.2115830874897988</v>
+        <v>0.1323102827659759</v>
       </c>
       <c r="P12">
-        <v>0.2115830874897987</v>
+        <v>0.132310282765976</v>
       </c>
       <c r="Q12">
-        <v>1.427560406894889</v>
+        <v>7.068962846577334</v>
       </c>
       <c r="R12">
-        <v>12.848043662054</v>
+        <v>63.620665619196</v>
       </c>
       <c r="S12">
-        <v>0.0001420331461637839</v>
+        <v>0.0004365129409981194</v>
       </c>
       <c r="T12">
-        <v>0.0001420331461637839</v>
+        <v>0.0004365129409981194</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1251376666666667</v>
+        <v>0.619654</v>
       </c>
       <c r="H13">
-        <v>0.375413</v>
+        <v>1.858962</v>
       </c>
       <c r="I13">
-        <v>0.0006712878039962992</v>
+        <v>0.003299161122421622</v>
       </c>
       <c r="J13">
-        <v>0.0006712878039962993</v>
+        <v>0.003299161122421622</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.095153333333334</v>
+        <v>3.762092333333333</v>
       </c>
       <c r="N13">
-        <v>9.28546</v>
+        <v>11.286277</v>
       </c>
       <c r="O13">
-        <v>0.05740591946574151</v>
+        <v>0.04363315394075456</v>
       </c>
       <c r="P13">
-        <v>0.0574059194657415</v>
+        <v>0.04363315394075455</v>
       </c>
       <c r="Q13">
-        <v>0.387320266108889</v>
+        <v>2.331195562719333</v>
       </c>
       <c r="R13">
-        <v>3.48588239498</v>
+        <v>20.980760064474</v>
       </c>
       <c r="S13">
-        <v>3.853589361454603E-05</v>
+        <v>0.0001439528051299753</v>
       </c>
       <c r="T13">
-        <v>3.853589361454602E-05</v>
+        <v>0.0001439528051299752</v>
       </c>
     </row>
   </sheetData>
